--- a/document/2조 팀프로젝트 설계.xlsx
+++ b/document/2조 팀프로젝트 설계.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11880" tabRatio="497" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="8808" tabRatio="497" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="1.도메인 설정" sheetId="1" r:id="rId4"/>
@@ -18,31 +18,177 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <x:si>
+    <x:t>cal_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원정보
+(ez_em)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘린더
+(ez_cal)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_delete.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ez_logout.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>views/ez_emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>work_clock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_hits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cal_ck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>work_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_hits</x:t>
+  </x:si>
+  <x:si>
     <x:t>관리자유무</x:t>
   </x:si>
   <x:si>
-    <x:t>작성날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_sche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_color</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_ck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_cnum</x:t>
+    <x:t>cm_like</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출근상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도메인명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상위폴더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원,관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cal_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_posi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보관유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_bnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내선번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>???유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제페이지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_id</x:t>
   </x:si>
   <x:si>
     <x:t>mail_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_update.do</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -58,6 +204,23 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>work_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_update.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커뮤니티
+(ez_cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출근정보
+(ez_work)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_extension</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>e</x:t>
     </x:r>
@@ -71,21 +234,21 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>팀 프로젝트 (2조) - 도메인 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀 프로젝트 (2조) - DB 테이블 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커뮤니티
-(ez_cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>work_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근정보
-(ez_work)</x:t>
+    <x:t>메일정보
+(ez_mail)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>views/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ez_emp</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -101,192 +264,205 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>수신인(이메일)</x:t>
+  </x:si>
+  <x:si>
     <x:t>ex)ex_board</x:t>
   </x:si>
   <x:si>
-    <x:t>cm_hits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>work_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_like</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ez_logout.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>views/ez_emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_delete.do</x:t>
-  </x:si>
-  <x:si>
     <x:t>mail_email</x:t>
   </x:si>
   <x:si>
-    <x:t>수신인(이메일)</x:t>
-  </x:si>
-  <x:si>
     <x:t>mail_keep</x:t>
   </x:si>
   <x:si>
-    <x:t>캘린더
-(ez_cal)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cal_id</x:t>
-  </x:si>
-  <x:si>
     <x:t>mail_num</x:t>
   </x:si>
   <x:si>
-    <x:t>em_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정번호</x:t>
+    <x:t>cal_sche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cal_color</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cal_cnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>logout.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_bnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com_cnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cm_dname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지
+(ez_not)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timestamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>em_image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등등…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발신인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ez_emp_delete.jsp</x:t>
   </x:si>
   <x:si>
     <x:t>ex)boardUpdate.jsp</x:t>
   </x:si>
   <x:si>
     <x:t>ez_emp_update.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex)boardMain.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex)ex_updateBoard</x:t>
   </x:si>
   <x:si>
     <x:t>커뮤니티-댓글
 (ez_com)</x:t>
   </x:si>
   <x:si>
-    <x:t>ez_emp_delete.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex)ex_updateBoard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex)boardMain.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_hits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>work_clock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메일번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상위폴더</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도메인명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원,관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제페이지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>???유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내선번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보관유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_posi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_bnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>logout.do</x:t>
+    <x:t>팀 프로젝트 (2조) - 도메인 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀 프로젝트 (2조) - DB 테이블 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>e</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>z_main.jsp</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -300,182 +476,6 @@
       </x:rPr>
       <x:t>ez_emp)</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>e</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>z_main.jsp</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>login.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원정보
-(ez_em)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발신인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등등…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_extension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메일정보
-(ez_mail)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>views/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ez_emp</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>em_image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_cnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timestamp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지
-(ez_not)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_bnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_dname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cm_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색상</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1091,6 +1091,45 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1165,19 +1204,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1186,32 +1212,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1225,6 +1225,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1307,6 +1308,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1341,6 +1343,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1385,6 +1388,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1428,6 +1432,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1511,8 +1516,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1523,7 +1528,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -1533,8 +1537,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1550,7 +1554,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -1565,8 +1568,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1582,7 +1585,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -1834,19 +1836,19 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19" ht="29.25" customHeight="1">
-      <x:c r="A1" s="28" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B1" s="29"/>
-      <x:c r="C1" s="29"/>
-      <x:c r="D1" s="29"/>
-      <x:c r="E1" s="29"/>
-      <x:c r="F1" s="29"/>
-      <x:c r="G1" s="29"/>
-      <x:c r="H1" s="29"/>
-      <x:c r="I1" s="29"/>
-      <x:c r="J1" s="29"/>
-      <x:c r="K1" s="30"/>
+      <x:c r="A1" s="31" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B1" s="32"/>
+      <x:c r="C1" s="32"/>
+      <x:c r="D1" s="32"/>
+      <x:c r="E1" s="32"/>
+      <x:c r="F1" s="32"/>
+      <x:c r="G1" s="32"/>
+      <x:c r="H1" s="32"/>
+      <x:c r="I1" s="32"/>
+      <x:c r="J1" s="32"/>
+      <x:c r="K1" s="33"/>
       <x:c r="L1" s="4"/>
       <x:c r="M1" s="4"/>
       <x:c r="N1" s="4"/>
@@ -1858,25 +1860,25 @@
     </x:row>
     <x:row r="2" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
         <x:v>104</x:v>
@@ -1893,23 +1895,23 @@
     </x:row>
     <x:row r="3" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A3" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D3" s="7"/>
       <x:c r="E3" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H3" s="7"/>
       <x:c r="I3" s="7"/>
@@ -1919,20 +1921,20 @@
     <x:row r="4" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A4" s="9"/>
       <x:c r="B4" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D4" s="4"/>
       <x:c r="E4" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H4" s="4"/>
       <x:c r="I4" s="4"/>
@@ -1942,17 +1944,17 @@
     <x:row r="5" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A5" s="9"/>
       <x:c r="B5" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="4"/>
       <x:c r="E5" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="4"/>
       <x:c r="H5" s="4"/>
@@ -1963,19 +1965,19 @@
     <x:row r="6" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A6" s="9"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E6" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G6" s="4"/>
       <x:c r="H6" s="4"/>
@@ -1986,19 +1988,19 @@
     <x:row r="7" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A7" s="9"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4"/>
@@ -2009,15 +2011,15 @@
     <x:row r="8" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A8" s="11"/>
       <x:c r="B8" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C8" s="12"/>
       <x:c r="D8" s="12"/>
       <x:c r="E8" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G8" s="12"/>
       <x:c r="H8" s="12"/>
@@ -2027,21 +2029,21 @@
     </x:row>
     <x:row r="9" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C9" s="7"/>
       <x:c r="D9" s="7"/>
       <x:c r="E9" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H9" s="7"/>
       <x:c r="I9" s="7"/>
@@ -2051,18 +2053,18 @@
     <x:row r="10" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A10" s="9"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="4"/>
       <x:c r="D10" s="4"/>
       <x:c r="E10" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
@@ -2072,18 +2074,18 @@
     <x:row r="11" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C11" s="12"/>
       <x:c r="D11" s="12"/>
       <x:c r="E11" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F11" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G11" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2092,22 +2094,22 @@
     </x:row>
     <x:row r="12" spans="1:1" ht="16.5" customHeight="1">
       <x:c r="A12" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="16.5" customHeight="1">
       <x:c r="A13" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="16.5" customHeight="1">
       <x:c r="A14" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="16.5" customHeight="1">
       <x:c r="A15" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="16" ht="16.5" customHeight="1"/>
@@ -3099,7 +3101,7 @@
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:K1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3109,8 +3111,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:J40"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G23" activeCellId="0" sqref="G23:G23"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C43" activeCellId="0" sqref="C43:C43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" customHeight="1"/>
@@ -3128,264 +3130,264 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <x:c r="A1" s="28" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B1" s="29"/>
-      <x:c r="C1" s="29"/>
-      <x:c r="D1" s="29"/>
-      <x:c r="E1" s="29"/>
-      <x:c r="F1" s="29"/>
-      <x:c r="G1" s="29"/>
-      <x:c r="H1" s="29"/>
-      <x:c r="I1" s="29"/>
-      <x:c r="J1" s="30"/>
+      <x:c r="A1" s="31" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B1" s="32"/>
+      <x:c r="C1" s="32"/>
+      <x:c r="D1" s="32"/>
+      <x:c r="E1" s="32"/>
+      <x:c r="F1" s="32"/>
+      <x:c r="G1" s="32"/>
+      <x:c r="H1" s="32"/>
+      <x:c r="I1" s="32"/>
+      <x:c r="J1" s="33"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="16.5" customHeight="1">
       <x:c r="A2" s="15" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="15" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C2" s="15" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D2" s="15" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E2" s="15"/>
       <x:c r="F2" s="15" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G2" s="15" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="H2" s="15" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I2" s="15" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A3" s="31" t="s">
-        <x:v>82</x:v>
+      <x:c r="A3" s="34" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D3" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E3" s="18" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F3" s="33" t="s">
-        <x:v>112</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F3" s="36" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G3" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I3" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J3" s="18" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A4" s="32"/>
+      <x:c r="A4" s="35"/>
       <x:c r="B4" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D4" s="20" t="s">
-        <x:v>90</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F4" s="33"/>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F4" s="36"/>
       <x:c r="G4" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J4" s="22" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A5" s="32"/>
+      <x:c r="A5" s="35"/>
       <x:c r="B5" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D5" s="20" t="s">
-        <x:v>55</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="22"/>
-      <x:c r="F5" s="33"/>
+      <x:c r="F5" s="36"/>
       <x:c r="G5" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I5" s="20" t="s">
-        <x:v>94</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J5" s="22"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A6" s="32"/>
+      <x:c r="A6" s="35"/>
       <x:c r="B6" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="20" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E6" s="22"/>
-      <x:c r="F6" s="33"/>
+      <x:c r="F6" s="36"/>
       <x:c r="G6" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J6" s="22"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A7" s="32"/>
+      <x:c r="A7" s="35"/>
       <x:c r="B7" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="20" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="22"/>
-      <x:c r="F7" s="33"/>
+      <x:c r="F7" s="36"/>
       <x:c r="G7" s="19" t="s">
-        <x:v>7</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I7" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J7" s="22"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A8" s="32"/>
+      <x:c r="A8" s="35"/>
       <x:c r="B8" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E8" s="22"/>
-      <x:c r="F8" s="33"/>
+      <x:c r="F8" s="36"/>
       <x:c r="G8" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I8" s="20" t="s">
-        <x:v>84</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J8" s="22"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A9" s="32"/>
+      <x:c r="A9" s="35"/>
       <x:c r="B9" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="20" t="s">
-        <x:v>75</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E9" s="22"/>
-      <x:c r="F9" s="33"/>
+      <x:c r="F9" s="36"/>
       <x:c r="G9" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I9" s="20" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J9" s="22"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A10" s="32"/>
+      <x:c r="A10" s="35"/>
       <x:c r="B10" s="19" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C10" s="23" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D10" s="20" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="36"/>
+      <x:c r="G10" s="19" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H10" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I10" s="20" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="C10" s="23" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D10" s="20" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="33"/>
-      <x:c r="G10" s="19" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="H10" s="19" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I10" s="20" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="J10" s="22"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A11" s="32"/>
+      <x:c r="A11" s="35"/>
       <x:c r="B11" s="19" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D11" s="20" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C11" s="19" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D11" s="20" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E11" s="22"/>
-      <x:c r="F11" s="33"/>
+      <x:c r="F11" s="36"/>
       <x:c r="G11" s="20"/>
       <x:c r="H11" s="20"/>
       <x:c r="I11" s="20"/>
@@ -3416,234 +3418,234 @@
       <x:c r="J13" s="18"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A14" s="34" t="s">
-        <x:v>13</x:v>
+      <x:c r="A14" s="37" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C14" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D14" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E14" s="22" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F14" s="34" t="s">
-        <x:v>40</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F14" s="37" t="s">
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I14" s="20" t="s">
-        <x:v>71</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J14" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A15" s="34"/>
+      <x:c r="A15" s="37"/>
       <x:c r="B15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C15" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D15" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E15" s="22" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F15" s="34"/>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F15" s="37"/>
       <x:c r="G15" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I15" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J15" s="22" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A16" s="34"/>
+      <x:c r="A16" s="37"/>
       <x:c r="B16" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C16" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" s="20" t="s">
-        <x:v>84</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E16" s="22"/>
-      <x:c r="F16" s="34"/>
+      <x:c r="F16" s="37"/>
       <x:c r="G16" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I16" s="20" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J16" s="22"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A17" s="34"/>
+      <x:c r="A17" s="37"/>
       <x:c r="B17" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C17" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D17" s="20" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E17" s="22"/>
-      <x:c r="F17" s="34"/>
+      <x:c r="F17" s="37"/>
       <x:c r="G17" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I17" s="20" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J17" s="22"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A18" s="34"/>
+      <x:c r="A18" s="37"/>
       <x:c r="B18" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D18" s="20" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E18" s="22"/>
-      <x:c r="F18" s="34"/>
+      <x:c r="F18" s="37"/>
       <x:c r="G18" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I18" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J18" s="22"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A19" s="34"/>
+      <x:c r="A19" s="37"/>
       <x:c r="B19" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C19" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D19" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E19" s="22"/>
-      <x:c r="F19" s="34"/>
+      <x:c r="F19" s="37"/>
       <x:c r="G19" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="20" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J19" s="22"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A20" s="34"/>
+      <x:c r="A20" s="37"/>
       <x:c r="B20" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D20" s="20" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E20" s="22"/>
-      <x:c r="F20" s="34"/>
+      <x:c r="F20" s="37"/>
       <x:c r="G20" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I20" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J20" s="22"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A21" s="34"/>
+      <x:c r="A21" s="37"/>
       <x:c r="B21" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C21" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D21" s="20" t="s">
-        <x:v>89</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E21" s="22"/>
-      <x:c r="F21" s="34"/>
+      <x:c r="F21" s="37"/>
       <x:c r="G21" s="20"/>
       <x:c r="H21" s="20"/>
       <x:c r="I21" s="20"/>
       <x:c r="J21" s="22"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A22" s="34"/>
+      <x:c r="A22" s="37"/>
       <x:c r="B22" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C22" s="19" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D22" s="20" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C22" s="19" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D22" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="E22" s="22"/>
-      <x:c r="F22" s="34"/>
+      <x:c r="F22" s="37"/>
       <x:c r="G22" s="20"/>
       <x:c r="H22" s="20"/>
       <x:c r="I22" s="20"/>
       <x:c r="J22" s="22"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A23" s="34"/>
+      <x:c r="A23" s="37"/>
       <x:c r="B23" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C23" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D23" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="22"/>
-      <x:c r="F23" s="34"/>
+      <x:c r="F23" s="37"/>
       <x:c r="G23" s="20"/>
       <x:c r="H23" s="20"/>
       <x:c r="I23" s="20"/>
@@ -3674,97 +3676,97 @@
       <x:c r="J25" s="18"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A26" s="34" t="s">
-        <x:v>122</x:v>
+      <x:c r="A26" s="37" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B26" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C26" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D26" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E26" s="22" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F26" s="34" t="s">
-        <x:v>15</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F26" s="37" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I26" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J26" s="21" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A27" s="34"/>
+      <x:c r="A27" s="37"/>
       <x:c r="B27" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C27" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D27" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E27" s="22" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F27" s="34"/>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F27" s="37"/>
       <x:c r="G27" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I27" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J27" s="22"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A28" s="34"/>
+      <x:c r="A28" s="37"/>
       <x:c r="B28" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C28" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D28" s="20" t="s">
-        <x:v>84</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E28" s="22"/>
-      <x:c r="F28" s="34"/>
+      <x:c r="F28" s="37"/>
       <x:c r="G28" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I28" s="20" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J28" s="22"/>
     </x:row>
     <x:row r="29" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A29" s="34"/>
+      <x:c r="A29" s="37"/>
       <x:c r="B29" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D29" s="20" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E29" s="22"/>
       <x:c r="F29" s="20"/>
@@ -3774,15 +3776,15 @@
       <x:c r="J29" s="22"/>
     </x:row>
     <x:row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A30" s="34"/>
+      <x:c r="A30" s="37"/>
       <x:c r="B30" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E30" s="22"/>
       <x:c r="F30" s="20"/>
@@ -3792,15 +3794,15 @@
       <x:c r="J30" s="22"/>
     </x:row>
     <x:row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A31" s="34"/>
+      <x:c r="A31" s="37"/>
       <x:c r="B31" s="19" t="s">
-        <x:v>49</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D31" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E31" s="22"/>
       <x:c r="F31" s="20"/>
@@ -3810,15 +3812,15 @@
       <x:c r="J31" s="22"/>
     </x:row>
     <x:row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A32" s="34"/>
+      <x:c r="A32" s="37"/>
       <x:c r="B32" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D32" s="20" t="s">
-        <x:v>89</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E32" s="22"/>
       <x:c r="F32" s="20"/>
@@ -3840,16 +3842,16 @@
       <x:c r="J33" s="26"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A34" s="35" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B34" s="36" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C34" s="36" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D34" s="36" t="s">
+      <x:c r="A34" s="38" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B34" s="28" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C34" s="28" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="28" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="E34" s="21"/>
@@ -3860,15 +3862,15 @@
       <x:c r="J34" s="8"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A35" s="35"/>
-      <x:c r="B35" s="36" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C35" s="36" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D35" s="36" t="s">
-        <x:v>60</x:v>
+      <x:c r="A35" s="38"/>
+      <x:c r="B35" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C35" s="28" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D35" s="28" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E35" s="21"/>
       <x:c r="F35" s="4"/>
@@ -3878,14 +3880,14 @@
       <x:c r="J35" s="10"/>
     </x:row>
     <x:row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A36" s="35"/>
-      <x:c r="B36" s="36" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C36" s="36" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D36" s="36" t="s">
+      <x:c r="A36" s="38"/>
+      <x:c r="B36" s="28" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C36" s="28" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D36" s="28" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="E36" s="21"/>
@@ -3896,50 +3898,50 @@
       <x:c r="J36" s="13"/>
     </x:row>
     <x:row r="37" spans="1:5" ht="16.5" customHeight="1">
-      <x:c r="A37" s="35"/>
-      <x:c r="B37" s="36" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C37" s="36" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D37" s="36" t="s">
-        <x:v>130</x:v>
+      <x:c r="A37" s="38"/>
+      <x:c r="B37" s="28" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C37" s="28" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D37" s="28" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E37" s="21"/>
     </x:row>
     <x:row r="38" spans="1:5" ht="16.5" customHeight="1">
-      <x:c r="A38" s="35"/>
-      <x:c r="B38" s="36" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C38" s="36" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D38" s="36" t="s">
-        <x:v>1</x:v>
+      <x:c r="A38" s="38"/>
+      <x:c r="B38" s="28" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C38" s="28" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D38" s="28" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E38" s="21"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.5" customHeight="1">
-      <x:c r="A39" s="35"/>
-      <x:c r="B39" s="36" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C39" s="36" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D39" s="36" t="s">
-        <x:v>0</x:v>
+      <x:c r="A39" s="38"/>
+      <x:c r="B39" s="28" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C39" s="28" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D39" s="28" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E39" s="21"/>
     </x:row>
     <x:row r="40" spans="1:5" ht="16.5" customHeight="1">
-      <x:c r="A40" s="37"/>
-      <x:c r="B40" s="38"/>
-      <x:c r="C40" s="38"/>
-      <x:c r="D40" s="38"/>
-      <x:c r="E40" s="39"/>
+      <x:c r="A40" s="39"/>
+      <x:c r="B40" s="29"/>
+      <x:c r="C40" s="29"/>
+      <x:c r="D40" s="29"/>
+      <x:c r="E40" s="30"/>
     </x:row>
     <x:row r="41" ht="16.5" customHeight="1"/>
     <x:row r="42" ht="16.5" customHeight="1"/>
@@ -4912,7 +4914,7 @@
     <x:mergeCell ref="F26:F28"/>
     <x:mergeCell ref="A34:A40"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5932,7 +5934,7 @@
     <x:row r="999" ht="16.5" customHeight="1"/>
     <x:row r="1000" ht="16.5" customHeight="1"/>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>